--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5b-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5b-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,10 +543,10 @@
         <v>0.710353</v>
       </c>
       <c r="I2">
-        <v>0.9172994178688939</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="J2">
-        <v>0.917299417868894</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.776364333333333</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N2">
-        <v>8.329093</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q2">
-        <v>0.6573995777587779</v>
+        <v>0.6024832133942223</v>
       </c>
       <c r="R2">
-        <v>5.916596199829001</v>
+        <v>5.422348920548001</v>
       </c>
       <c r="S2">
-        <v>0.2023859757309683</v>
+        <v>0.1763036198103822</v>
       </c>
       <c r="T2">
-        <v>0.2023859757309683</v>
+        <v>0.1763036198103822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +605,10 @@
         <v>0.710353</v>
       </c>
       <c r="I3">
-        <v>0.9172994178688939</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="J3">
-        <v>0.917299417868894</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +623,10 @@
         <v>26.424676</v>
       </c>
       <c r="O3">
-        <v>0.6999729490580858</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P3">
-        <v>0.6999729490580857</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q3">
         <v>2.085649763403111</v>
@@ -638,10 +635,10 @@
         <v>18.770847870628</v>
       </c>
       <c r="S3">
-        <v>0.6420847786949551</v>
+        <v>0.6103200799123907</v>
       </c>
       <c r="T3">
-        <v>0.6420847786949551</v>
+        <v>0.6103200799123908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,40 +667,40 @@
         <v>0.710353</v>
       </c>
       <c r="I4">
-        <v>0.9172994178688939</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="J4">
-        <v>0.917299417868894</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.003041</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N4">
-        <v>0.009123000000000001</v>
+        <v>3.821749</v>
       </c>
       <c r="O4">
-        <v>0.0002416624981232284</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P4">
-        <v>0.0002416624981232283</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q4">
-        <v>0.0007200611576666668</v>
+        <v>0.3016434297107778</v>
       </c>
       <c r="R4">
-        <v>0.006480550419</v>
+        <v>2.714790867397</v>
       </c>
       <c r="S4">
-        <v>0.00022167686884918</v>
+        <v>0.08826939467810692</v>
       </c>
       <c r="T4">
-        <v>0.00022167686884918</v>
+        <v>0.08826939467810693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,45 +729,45 @@
         <v>0.710353</v>
       </c>
       <c r="I5">
-        <v>0.9172994178688939</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="J5">
-        <v>0.917299417868894</v>
+        <v>0.8757151715610434</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.9921066666666668</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N5">
-        <v>2.97632</v>
+        <v>0.035593</v>
       </c>
       <c r="O5">
-        <v>0.0788408337623728</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P5">
-        <v>0.07884083376237279</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q5">
-        <v>0.2349153156622223</v>
+        <v>0.002809288258777778</v>
       </c>
       <c r="R5">
-        <v>2.11423784096</v>
+        <v>0.025283594329</v>
       </c>
       <c r="S5">
-        <v>0.0723206509145228</v>
+        <v>0.0008220771601635426</v>
       </c>
       <c r="T5">
-        <v>0.0723206509145228</v>
+        <v>0.0008220771601635429</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2367843333333333</v>
+        <v>0.03360533333333333</v>
       </c>
       <c r="H6">
-        <v>0.710353</v>
+        <v>0.100816</v>
       </c>
       <c r="I6">
-        <v>0.9172994178688939</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="J6">
-        <v>0.917299417868894</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.003928</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N6">
-        <v>0.011784</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O6">
-        <v>0.0003121507045800858</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P6">
-        <v>0.0003121507045800858</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q6">
-        <v>0.0009300888613333334</v>
+        <v>0.08550670953955557</v>
       </c>
       <c r="R6">
-        <v>0.008370799752</v>
+        <v>0.7695603858560001</v>
       </c>
       <c r="S6">
-        <v>0.0002863356595986778</v>
+        <v>0.02502168039665278</v>
       </c>
       <c r="T6">
-        <v>0.0002863356595986778</v>
+        <v>0.02502168039665278</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02134766666666666</v>
+        <v>0.03360533333333333</v>
       </c>
       <c r="H7">
-        <v>0.06404299999999999</v>
+        <v>0.100816</v>
       </c>
       <c r="I7">
-        <v>0.08270058213110602</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="J7">
-        <v>0.08270058213110604</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.776364333333333</v>
+        <v>8.808225333333333</v>
       </c>
       <c r="N7">
-        <v>8.329093</v>
+        <v>26.424676</v>
       </c>
       <c r="O7">
-        <v>0.2206324039768381</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P7">
-        <v>0.2206324039768381</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q7">
-        <v>0.05926890033322222</v>
+        <v>0.2960033484017778</v>
       </c>
       <c r="R7">
-        <v>0.5334201029989999</v>
+        <v>2.664030135616</v>
       </c>
       <c r="S7">
-        <v>0.01824642824586986</v>
+        <v>0.08661894744788518</v>
       </c>
       <c r="T7">
-        <v>0.01824642824586987</v>
+        <v>0.0866189474478852</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02134766666666666</v>
+        <v>0.03360533333333333</v>
       </c>
       <c r="H8">
-        <v>0.06404299999999999</v>
+        <v>0.100816</v>
       </c>
       <c r="I8">
-        <v>0.08270058213110602</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="J8">
-        <v>0.08270058213110604</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.808225333333333</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N8">
-        <v>26.424676</v>
+        <v>3.821749</v>
       </c>
       <c r="O8">
-        <v>0.6999729490580858</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P8">
-        <v>0.6999729490580857</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q8">
-        <v>0.1880350583408888</v>
+        <v>0.04281038302044445</v>
       </c>
       <c r="R8">
-        <v>1.692315525068</v>
+        <v>0.385293447184</v>
       </c>
       <c r="S8">
-        <v>0.05788817036313072</v>
+        <v>0.01252752827660054</v>
       </c>
       <c r="T8">
-        <v>0.05788817036313072</v>
+        <v>0.01252752827660055</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02134766666666666</v>
+        <v>0.03360533333333333</v>
       </c>
       <c r="H9">
-        <v>0.06404299999999999</v>
+        <v>0.100816</v>
       </c>
       <c r="I9">
-        <v>0.08270058213110602</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="J9">
-        <v>0.08270058213110604</v>
+        <v>0.1242848284389566</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,152 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.003041</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N9">
-        <v>0.009123000000000001</v>
+        <v>0.035593</v>
       </c>
       <c r="O9">
-        <v>0.0002416624981232284</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P9">
-        <v>0.0002416624981232283</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q9">
-        <v>6.491825433333333E-05</v>
+        <v>0.0003987048764444444</v>
       </c>
       <c r="R9">
-        <v>0.000584264289</v>
+        <v>0.003588343888</v>
       </c>
       <c r="S9">
-        <v>1.99856292740483E-05</v>
+        <v>0.0001166723178181097</v>
       </c>
       <c r="T9">
-        <v>1.99856292740483E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.02134766666666666</v>
-      </c>
-      <c r="H10">
-        <v>0.06404299999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.08270058213110602</v>
-      </c>
-      <c r="J10">
-        <v>0.08270058213110604</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.9921066666666668</v>
-      </c>
-      <c r="N10">
-        <v>2.97632</v>
-      </c>
-      <c r="O10">
-        <v>0.0788408337623728</v>
-      </c>
-      <c r="P10">
-        <v>0.07884083376237279</v>
-      </c>
-      <c r="Q10">
-        <v>0.02117916241777778</v>
-      </c>
-      <c r="R10">
-        <v>0.19061246176</v>
-      </c>
-      <c r="S10">
-        <v>0.006520182847849988</v>
-      </c>
-      <c r="T10">
-        <v>0.006520182847849988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.02134766666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.06404299999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.08270058213110602</v>
-      </c>
-      <c r="J11">
-        <v>0.08270058213110604</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.003928</v>
-      </c>
-      <c r="N11">
-        <v>0.011784</v>
-      </c>
-      <c r="O11">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="P11">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="Q11">
-        <v>8.385363466666666E-05</v>
-      </c>
-      <c r="R11">
-        <v>0.000754682712</v>
-      </c>
-      <c r="S11">
-        <v>2.5815044981408E-05</v>
-      </c>
-      <c r="T11">
-        <v>2.581504498140801E-05</v>
+        <v>0.0001166723178181098</v>
       </c>
     </row>
   </sheetData>
